--- a/assets/upload/Upload_Pelatihan.xlsx
+++ b/assets/upload/Upload_Pelatihan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murry Febriansyah P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\master_ho\assets\upload\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="[$-10484]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -159,11 +159,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
